--- a/docs/CareConnect-MedicationStatement-1.xlsx
+++ b/docs/CareConnect-MedicationStatement-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="503">
   <si>
     <t>Path</t>
   </si>
@@ -354,6 +354,20 @@
 </t>
   </si>
   <si>
+    <t>The date a prescription was last issued</t>
+  </si>
+  <si>
+    <t>The date a prescription was last issued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>changeSummary</t>
   </si>
   <si>
@@ -516,7 +530,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -714,7 +728,36 @@
     <t>class</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationReference</t>
+    <t>MedicationStatement.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>What medication was taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>…code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM or MANU]</t>
+  </si>
+  <si>
+    <t>what</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -724,27 +767,6 @@
 </t>
   </si>
   <si>
-    <t>What medication was taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]</t>
-  </si>
-  <si>
-    <t>…code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM or MANU]</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>MedicationStatement.effective[x]</t>
   </si>
   <si>
@@ -1041,6 +1063,530 @@
   </si>
   <si>
     <t>refer dosageInstruction mapping</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals"</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals".</t>
+  </si>
+  <si>
+    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>snomedCT</t>
+  </si>
+  <si>
+    <t>A code from the SNOMED Clinical Terminology UK coding system that describes the e-Prescribing route of administration.</t>
+  </si>
+  <si>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-MedicationDosageRoute-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.extension</t>
+  </si>
+  <si>
+    <t>snomedCTDescriptionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1198,8 +1744,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1221,8 +1767,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.0859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -1236,7 +1782,7 @@
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2270,10 +2816,10 @@
         <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2333,10 +2879,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2356,7 +2902,7 @@
         <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -2366,7 +2912,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2378,13 +2924,13 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2444,10 +2990,10 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2464,11 +3010,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2490,13 +3036,13 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2546,7 +3092,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2575,7 +3121,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2598,13 +3144,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2655,7 +3201,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2670,13 +3216,13 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2684,7 +3230,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2707,13 +3253,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2764,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2782,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2793,11 +3339,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2819,13 +3365,13 @@
         <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2866,7 +3412,7 @@
         <v>99</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>40</v>
@@ -2875,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2893,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2904,7 +3450,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2930,16 +3476,16 @@
         <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2964,13 +3510,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2988,7 +3534,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3006,7 +3552,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3017,7 +3563,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3040,19 +3586,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3080,10 +3626,10 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3101,7 +3647,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3119,18 +3665,18 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3156,14 +3702,14 @@
         <v>64</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3176,7 +3722,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -3212,7 +3758,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3230,18 +3776,18 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3264,16 +3810,16 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3287,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>40</v>
@@ -3323,7 +3869,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3341,18 +3887,18 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3375,13 +3921,13 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3432,7 +3978,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3450,18 +3996,18 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3484,16 +4030,16 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3543,7 +4089,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3561,18 +4107,18 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3595,17 +4141,17 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3654,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3669,10 +4215,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3683,7 +4229,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3706,17 +4252,17 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3765,7 +4311,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3780,10 +4326,10 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3794,7 +4340,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3817,13 +4363,13 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3874,7 +4420,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3889,10 +4435,10 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3903,7 +4449,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3929,13 +4475,13 @@
         <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3961,32 +4507,32 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>51</v>
       </c>
@@ -4000,13 +4546,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4014,7 +4560,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4037,13 +4583,13 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4070,32 +4616,32 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4112,10 +4658,10 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4123,11 +4669,9 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4148,16 +4692,16 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4195,19 +4739,17 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>51</v>
@@ -4222,13 +4764,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4236,15 +4778,17 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4259,16 +4803,16 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4318,10 +4862,10 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>51</v>
@@ -4333,13 +4877,13 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4347,7 +4891,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4370,15 +4914,17 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4427,7 +4973,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4442,7 +4988,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>242</v>
@@ -4476,7 +5022,7 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>245</v>
@@ -4573,7 +5119,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4585,7 +5131,7 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>251</v>
@@ -4648,7 +5194,7 @@
         <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>51</v>
@@ -4660,21 +5206,21 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4682,10 +5228,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4694,20 +5240,18 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4756,13 +5300,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4771,16 +5315,16 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -4793,31 +5337,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4843,13 +5387,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4870,10 +5414,10 @@
         <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4882,10 +5426,10 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4896,7 +5440,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4904,30 +5448,32 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4952,49 +5498,49 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -5005,7 +5551,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5028,17 +5574,15 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5063,13 +5607,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5087,7 +5631,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5096,19 +5640,19 @@
         <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5116,7 +5660,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5139,16 +5683,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5174,13 +5718,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5198,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5213,13 +5757,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5227,7 +5771,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5250,15 +5794,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5307,7 +5853,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5328,7 +5874,7 @@
         <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5347,7 +5893,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5359,13 +5905,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5416,13 +5962,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>125</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5431,10 +5977,10 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5445,18 +5991,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5468,17 +6014,15 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5515,37 +6059,37 @@
         <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5556,18 +6100,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5576,18 +6120,20 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5624,25 +6170,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5654,13 +6200,13 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -5688,13 +6234,13 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5745,7 +6291,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5763,7 +6309,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5774,7 +6320,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5782,7 +6328,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -5794,16 +6340,16 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5854,10 +6400,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -5872,7 +6418,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5883,7 +6429,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5891,10 +6437,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5906,7 +6452,7 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>321</v>
+        <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>322</v>
@@ -5914,9 +6460,7 @@
       <c r="L43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5965,13 +6509,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -5989,11 +6533,3355 @@
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM43">
+  <autoFilter ref="A1:AM73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6003,7 +9891,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
